--- a/biology/Botanique/Thunbergia_alata/Thunbergia_alata.xlsx
+++ b/biology/Botanique/Thunbergia_alata/Thunbergia_alata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Suzanne aux yeux noirs
 Thunbergia alata, la suzanne aux yeux noirs, est une espèce invasive de la famille des Acanthaceae, utilisée comme plante ornementale. Cette plante vivace grimpante est originaire de l'Afrique de l'Est, et a été trouvée dans le Cerrado du Brésil, à Hawaii, en Australie et dans le Sud des États-Unis.
@@ -513,7 +525,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Endomelas alata (ex Sims) Raf.* Thunbergia alata  ex Sims var. fryeri (Vilm.) Hasselbr.
 Thunbergia alata Bojer ex Sims  var. albiflora Kuntze
